--- a/reports/tables_report2.xlsx
+++ b/reports/tables_report2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FRI\3Letnik\bachelor\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DEE24B-C4E2-4BB7-9A1A-3D55026D47A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ECE203-DA06-44DC-A3B0-8334BC90CFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{158D7020-02A0-41BC-87DA-1B76872976CF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>RMSE</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Random Forests 2</t>
   </si>
 </sst>
 </file>
@@ -85,8 +88,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -214,32 +217,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -556,16 +559,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F394A8D4-1447-43C4-8FA2-D517F4957B4E}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -714,6 +717,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="15">
+        <v>15.788</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.76086679700000004</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
